--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55D9C1F2-B2C4-4B72-9D10-4AD11E6A560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C56A64-FF13-4A2F-954D-CFFD35E0112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{1A66E561-8B40-48C2-9C61-29B60AFB79AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Ropa</t>
   </si>
   <si>
-    <t>Salidad</t>
-  </si>
-  <si>
     <t>Gastos Extra</t>
   </si>
   <si>
@@ -262,13 +260,45 @@
   </si>
   <si>
     <t>DIFERENCIA DIC</t>
+  </si>
+  <si>
+    <t>TOTAL INGRESOS</t>
+  </si>
+  <si>
+    <t>TOTAL GASTOS FIJOS</t>
+  </si>
+  <si>
+    <t>TOTAL GASTOS VARIABLES</t>
+  </si>
+  <si>
+    <t>Regalo Mes</t>
+  </si>
+  <si>
+    <t>INGRESOS MENOS GASTOS</t>
+  </si>
+  <si>
+    <t>Citas</t>
+  </si>
+  <si>
+    <t>Gastos Panaderia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,17 +324,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -318,6 +352,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>760381</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5156A9DA-D486-46CE-EFA0-8CB893C37487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12952381" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,40 +720,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926815E-931D-4283-A10D-DD10A828EC47}">
-  <dimension ref="A2:AO27"/>
+  <dimension ref="A2:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="11.42578125" collapsed="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="11.42578125" collapsed="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="16" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="11.42578125" collapsed="1"/>
-    <col min="18" max="19" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="19" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="11.42578125" collapsed="1"/>
-    <col min="21" max="22" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="23" max="23" width="11.42578125" collapsed="1"/>
-    <col min="24" max="25" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11.42578125" collapsed="1"/>
-    <col min="27" max="28" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="11.42578125" collapsed="1"/>
-    <col min="30" max="31" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="11.42578125" collapsed="1"/>
-    <col min="33" max="34" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.42578125" collapsed="1"/>
-    <col min="36" max="37" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="11.42578125" collapsed="1"/>
+    <col min="24" max="25" width="13" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="37" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -678,533 +760,2203 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
         <v>67</v>
       </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
         <v>68</v>
       </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="X2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>59</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
+        <f>X3-Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>650000</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>650000</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>AA3-AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3">
+        <f>AD3-AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3">
+        <f>AG3-AH3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3">
+        <f>AJ3-AK3</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <f>SUM(C3,F3,I3,L3,O3,R3,U3,X3,AA3,AD3,AG3,AJ3)</f>
+        <v>650000</v>
+      </c>
+      <c r="AN3" s="3">
+        <f>SUM(D3,G3,J3,M3,P3,S3,V3,Y3,AB3,AE3,AH3,AK3)</f>
+        <v>650000</v>
+      </c>
+      <c r="AO3" s="3">
+        <f>AM3-AN3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E5" si="0">C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
+        <f>X4-Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3">
+        <f t="shared" ref="AC4:AC5" si="1">AA4-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3">
+        <f t="shared" ref="AF4:AF5" si="2">AD4-AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3">
+        <f t="shared" ref="AI4:AI5" si="3">AG4-AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3">
+        <f t="shared" ref="AL4:AL5" si="4">AJ4-AK4</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <f t="shared" ref="AM4:AM5" si="5">SUM(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <f t="shared" ref="AN4:AN5" si="6">SUM(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4,AH4,AK4)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <f t="shared" ref="AO4:AO5" si="7">AM4-AN4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>60</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3">
+        <v>130000</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5" si="8">X5-Y5</f>
+        <v>130000</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="5"/>
+        <v>130000</v>
+      </c>
+      <c r="AN5" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <f t="shared" si="7"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f>SUM(D3:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <f>SUM(G3:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <f>SUM(J3:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(M3:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <f>SUM(P3:P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <f>SUM(S3:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
+        <f>SUM(V3:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3">
+        <f>SUM(Y3:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3">
+        <f>SUM(AB3:AB5)</f>
+        <v>650000</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3">
+        <f>SUM(AE3:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3">
+        <f>SUM(AH3:AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3">
+        <f>SUM(AK3:AK5)</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <v>70000</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>53560</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" ref="Z9:Z20" si="9">X9-Y9</f>
+        <v>16440</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>70000</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>53560</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>AA9-AB9</f>
+        <v>16440</v>
+      </c>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4">
+        <f>AD9-AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4">
+        <f>AG9-AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4">
+        <f>AJ9-AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4">
+        <f>SUM(C9,F9,I9,L9,O9,R9,U9,X9,AA9,AD9,AG9,AJ9)</f>
+        <v>140000</v>
+      </c>
+      <c r="AN9" s="4">
+        <f>SUM(D9,G9,J9,M9,P9,S9,V9,Y9,AB9,AE9,AH9,AK9)</f>
+        <v>107120</v>
+      </c>
+      <c r="AO9" s="4">
+        <f>AM9-AN9</f>
+        <v>32880</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <v>130000</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>128261</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="9"/>
+        <v>1739</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>130000</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4">
+        <f t="shared" ref="AC10:AC21" si="10">AA10-AB10</f>
+        <v>130000</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4">
+        <f t="shared" ref="AF10:AF20" si="11">AD10-AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4">
+        <f t="shared" ref="AI10:AI20" si="12">AG10-AH10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4">
+        <f t="shared" ref="AL10:AL20" si="13">AJ10-AK10</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4">
+        <f t="shared" ref="AM10:AM20" si="14">SUM(C10,F10,I10,L10,O10,R10,U10,X10,AA10,AD10,AG10,AJ10)</f>
+        <v>260000</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" ref="AN10:AN20" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
+        <v>128261</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" ref="AO10:AO20" si="16">AM10-AN10</f>
+        <v>131739</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>132000</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="AC11" s="4">
+        <f t="shared" si="10"/>
+        <v>122000</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="4">
+        <f t="shared" si="14"/>
+        <v>132000</v>
+      </c>
+      <c r="AN11" s="4">
+        <f t="shared" si="15"/>
+        <v>10000</v>
+      </c>
+      <c r="AO11" s="4">
+        <f t="shared" si="16"/>
+        <v>122000</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>160000</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>40000</v>
+      </c>
+      <c r="AC12" s="4">
+        <f t="shared" si="10"/>
+        <v>120000</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <f t="shared" si="14"/>
+        <v>160000</v>
+      </c>
+      <c r="AN12" s="4">
+        <f t="shared" si="15"/>
+        <v>40000</v>
+      </c>
+      <c r="AO12" s="4">
+        <f t="shared" si="16"/>
+        <v>120000</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>80000</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>20900</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="10"/>
+        <v>59100</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="4">
+        <f t="shared" si="14"/>
+        <v>80000</v>
+      </c>
+      <c r="AN13" s="4">
+        <f t="shared" si="15"/>
+        <v>20900</v>
+      </c>
+      <c r="AO13" s="4">
+        <f t="shared" si="16"/>
+        <v>59100</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>50000</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <f t="shared" si="14"/>
+        <v>50000</v>
+      </c>
+      <c r="AN14" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="4">
+        <f t="shared" si="16"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>40000</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <f t="shared" si="14"/>
+        <v>40000</v>
+      </c>
+      <c r="AN15" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="16"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>9800</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>2450</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="10"/>
+        <v>7350</v>
+      </c>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="4">
+        <f t="shared" si="14"/>
+        <v>9800</v>
+      </c>
+      <c r="AN16" s="4">
+        <f t="shared" si="15"/>
+        <v>2450</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" si="16"/>
+        <v>7350</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>12000</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>12000</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
+        <f t="shared" si="14"/>
+        <v>12000</v>
+      </c>
+      <c r="AN17" s="4">
+        <f t="shared" si="15"/>
+        <v>12000</v>
+      </c>
+      <c r="AO17" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4">
+        <f t="shared" si="14"/>
+        <v>15000</v>
+      </c>
+      <c r="AN18" s="4">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="AO18" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>44</v>
-      </c>
-      <c r="S19" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" t="s">
-        <v>46</v>
-      </c>
-      <c r="V19" t="s">
-        <v>47</v>
-      </c>
-      <c r="W19" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>50000</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="4">
+        <f t="shared" si="14"/>
+        <v>50000</v>
+      </c>
+      <c r="AN19" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="4">
+        <f t="shared" si="16"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.3</v>
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>11300</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" si="10"/>
+        <v>88700</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="4">
+        <f t="shared" si="14"/>
+        <v>100000</v>
+      </c>
+      <c r="AN20" s="4">
+        <f t="shared" si="15"/>
+        <v>11300</v>
+      </c>
+      <c r="AO20" s="4">
+        <f t="shared" si="16"/>
+        <v>88700</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <f>SUM(D9:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <f>SUM(G9:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <f>SUM(J9:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <f>SUM(M9:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <f>SUM(P9:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <f>SUM(S9:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
+        <f>SUM(V9:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4">
+        <f>SUM(Y9:Y20)</f>
+        <v>181821</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4">
+        <f>SUM(AB9:AB20)</f>
+        <v>165210</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="10"/>
+        <v>-165210</v>
+      </c>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4">
+        <f>SUM(AE9:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4">
+        <f>SUM(AH9:AH20)</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4">
+        <f>SUM(AK9:AK20)</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4">
+        <f>AB6-AB21</f>
+        <v>484790</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.05</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
-        <v>0.15</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3">
+        <f>AB22*0.3</f>
+        <v>145437</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
-        <v>0.15</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3">
+        <f>AB22*0.2</f>
+        <v>96958</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3">
+        <f>AB22*0.1</f>
+        <v>48479</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3">
+        <f>AB22*0.05</f>
+        <v>24239.5</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3">
+        <f>AB22*0.05</f>
+        <v>24239.5</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>26000</v>
+      </c>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3">
+        <f>AB22*0.15</f>
+        <v>72718.5</v>
+      </c>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3">
+        <f>AB22*0.15</f>
+        <v>72718.5</v>
+      </c>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3">
+        <f>AB22*0.1</f>
+        <v>48479</v>
+      </c>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D25:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f>SUM(G25:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J25:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <f>SUM(M25:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f>SUM(P25:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <f>SUM(S25:S32)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <f>SUM(V25:V32)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <f>SUM(Y25:Y32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <f>SUM(AB25:AB32)</f>
+        <v>55000</v>
+      </c>
+      <c r="AE33" s="3">
+        <f>SUM(AE25:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3">
+        <f>SUM(AH25:AH32)</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3">
+        <f>SUM(AK25:AK32)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1213,6 +2965,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48FEE0-0018-4E04-A910-067EF4CC8AB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87AFD04-586F-4E21-AE98-61C73579E7E3}">
   <dimension ref="B4:E4"/>
   <sheetViews>
@@ -1224,16 +2989,16 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sebastian\proyectos2024\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson.Daza\Documents\Sebastian Carrero\programacion2024\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C56A64-FF13-4A2F-954D-CFFD35E0112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{1A66E561-8B40-48C2-9C61-29B60AFB79AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
+    <sheet name="RESUMEN" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -82,9 +80,6 @@
     <t>Ahorro en Cta Bancaria</t>
   </si>
   <si>
-    <t>Aporte en el Hogar 2</t>
-  </si>
-  <si>
     <t>GASTOS VARIABLES</t>
   </si>
   <si>
@@ -281,17 +276,29 @@
   </si>
   <si>
     <t>Gastos Panaderia</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>INGRESOS TOTALES</t>
+  </si>
+  <si>
+    <t>Aporte Hogar Sabroso</t>
+  </si>
+  <si>
+    <t>SALDO FINAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,14 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -352,55 +361,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>760381</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5156A9DA-D486-46CE-EFA0-8CB893C37487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12952381" cy="7314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,168 +679,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926815E-931D-4283-A10D-DD10A828EC47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="11.42578125" collapsed="1"/>
-    <col min="12" max="13" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.42578125" collapsed="1"/>
-    <col min="15" max="16" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.42578125" collapsed="1"/>
-    <col min="18" max="19" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="11.42578125" collapsed="1"/>
-    <col min="21" max="22" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="11.42578125" collapsed="1"/>
+    <col min="3" max="4" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="11.375" collapsed="1"/>
+    <col min="12" max="13" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.375" collapsed="1"/>
+    <col min="15" max="16" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.375" collapsed="1"/>
+    <col min="18" max="19" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="11.375" collapsed="1"/>
+    <col min="21" max="22" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="11.375" collapsed="1"/>
     <col min="24" max="25" width="13" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="34" width="11.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="37" width="11.375" customWidth="1" outlineLevel="1"/>
     <col min="39" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="s">
         <v>72</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -955,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -989,11 +949,13 @@
         <f>X4-Y4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="3">
+        <v>650000</v>
+      </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3">
         <f t="shared" ref="AC4:AC5" si="1">AA4-AB4</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -1015,7 +977,7 @@
       </c>
       <c r="AM4" s="3">
         <f t="shared" ref="AM4:AM5" si="5">SUM(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4)</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AN4" s="3">
         <f t="shared" ref="AN4:AN5" si="6">SUM(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4,AH4,AK4)</f>
@@ -1023,10 +985,10 @@
       </c>
       <c r="AO4" s="3">
         <f t="shared" ref="AO4:AO5" si="7">AM4-AN4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1061,9 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -1151,12 +1113,18 @@
         <v>0</v>
       </c>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3">
+        <f>SUM(AA3:AA5)</f>
+        <v>1300000</v>
+      </c>
       <c r="AB6" s="3">
         <f>SUM(AB3:AB5)</f>
         <v>650000</v>
       </c>
-      <c r="AC6" s="3"/>
+      <c r="AC6" s="3">
+        <f>SUM(AC3:AC5)</f>
+        <v>650000</v>
+      </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3">
         <f>SUM(AE3:AE5)</f>
@@ -1179,137 +1147,137 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
         <v>37</v>
       </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>40</v>
       </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>41</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>43</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
         <v>44</v>
       </c>
-      <c r="T8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>45</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s">
         <v>46</v>
       </c>
-      <c r="W8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG8" t="s">
         <v>52</v>
       </c>
-      <c r="AF8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>53</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>54</v>
       </c>
-      <c r="AI8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM8" t="s">
         <v>56</v>
       </c>
-      <c r="AL8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>57</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>58</v>
       </c>
-      <c r="AO8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1383,12 +1351,12 @@
         <v>32880</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1424,10 +1392,12 @@
       <c r="AA10" s="4">
         <v>130000</v>
       </c>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="4">
+        <v>128261</v>
+      </c>
       <c r="AC10" s="4">
         <f t="shared" ref="AC10:AC21" si="10">AA10-AB10</f>
-        <v>130000</v>
+        <v>1739</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
@@ -1453,19 +1423,19 @@
       </c>
       <c r="AN10" s="4">
         <f t="shared" ref="AN10:AN20" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
-        <v>128261</v>
+        <v>256522</v>
       </c>
       <c r="AO10" s="4">
         <f t="shared" ref="AO10:AO20" si="16">AM10-AN10</f>
-        <v>131739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1498,11 +1468,11 @@
         <v>132000</v>
       </c>
       <c r="AB11" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="10"/>
-        <v>122000</v>
+        <v>112000</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1528,19 +1498,19 @@
       </c>
       <c r="AN11" s="4">
         <f t="shared" si="15"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="AO11" s="4">
         <f t="shared" si="16"/>
-        <v>122000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1573,11 +1543,11 @@
         <v>160000</v>
       </c>
       <c r="AB12" s="4">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="10"/>
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -1603,19 +1573,19 @@
       </c>
       <c r="AN12" s="4">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="AO12" s="4">
         <f t="shared" si="16"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1685,12 +1655,12 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1722,10 +1692,12 @@
       <c r="AA14" s="4">
         <v>50000</v>
       </c>
-      <c r="AB14" s="4"/>
+      <c r="AB14" s="4">
+        <v>7900</v>
+      </c>
       <c r="AC14" s="4">
         <f t="shared" si="10"/>
-        <v>50000</v>
+        <v>42100</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -1751,19 +1723,19 @@
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" si="16"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1831,12 +1803,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1906,12 +1878,12 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1981,12 +1953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2056,12 +2028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2093,10 +2065,12 @@
       <c r="AA19" s="4">
         <v>50000</v>
       </c>
-      <c r="AB19" s="4"/>
+      <c r="AB19" s="4">
+        <v>20000</v>
+      </c>
       <c r="AC19" s="4">
         <f t="shared" si="10"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
@@ -2122,19 +2096,19 @@
       </c>
       <c r="AN19" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AO19" s="4">
         <f t="shared" si="16"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2204,9 +2178,9 @@
         <v>88700</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
@@ -2256,14 +2230,17 @@
         <v>181821</v>
       </c>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="4"/>
+      <c r="AA21" s="4">
+        <f>SUM(AA9:AA20)</f>
+        <v>848800</v>
+      </c>
       <c r="AB21" s="4">
         <f>SUM(AB9:AB20)</f>
-        <v>165210</v>
+        <v>371371</v>
       </c>
       <c r="AC21" s="4">
-        <f t="shared" si="10"/>
-        <v>-165210</v>
+        <f>SUM(AC9:AC20)</f>
+        <v>477429</v>
       </c>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4">
@@ -2287,9 +2264,9 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2318,7 +2295,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4">
         <f>AB6-AB21</f>
-        <v>484790</v>
+        <v>278629</v>
       </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2334,7 +2311,7 @@
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2375,134 +2352,134 @@
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s">
+        <v>44</v>
+      </c>
+      <c r="V24" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" t="s">
-        <v>38</v>
-      </c>
-      <c r="U24" t="s">
-        <v>45</v>
-      </c>
-      <c r="V24" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s">
-        <v>38</v>
-      </c>
-      <c r="X24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>0.3</v>
@@ -2533,26 +2510,47 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f>AB22*0.3</f>
-        <v>145437</v>
+        <v>83588.7</v>
       </c>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
+      <c r="AC25" s="3">
+        <f>AA25-AB25</f>
+        <v>83588.7</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>AE22*0.3</f>
+        <v>0</v>
+      </c>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="AF25" s="3">
+        <f>AD25-AE25</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <f>AH22*0.3</f>
+        <v>0</v>
+      </c>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+      <c r="AI25" s="3">
+        <f>AG25-AH25</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f>AJ22*0.3</f>
+        <v>0</v>
+      </c>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
+      <c r="AL25" s="3">
+        <f>AJ25-AK25</f>
+        <v>0</v>
+      </c>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1">
         <v>0.2</v>
@@ -2583,28 +2581,49 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
         <f>AB22*0.2</f>
-        <v>96958</v>
+        <v>55725.8</v>
       </c>
       <c r="AB26" s="3">
         <v>19000</v>
       </c>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
+      <c r="AC26" s="3">
+        <f t="shared" ref="AC26:AC32" si="17">AA26-AB26</f>
+        <v>36725.800000000003</v>
+      </c>
+      <c r="AD26" s="3">
+        <f>AE22*0.2</f>
+        <v>0</v>
+      </c>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
+      <c r="AF26" s="3">
+        <f t="shared" ref="AF26:AF32" si="18">AD26-AE26</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
+        <f>AH22*0.2</f>
+        <v>0</v>
+      </c>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
+      <c r="AI26" s="3">
+        <f t="shared" ref="AI26:AI32" si="19">AG26-AH26</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f>AJ22*0.2</f>
+        <v>0</v>
+      </c>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
+      <c r="AL26" s="3">
+        <f t="shared" ref="AL26:AL32" si="20">AJ26-AK26</f>
+        <v>0</v>
+      </c>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
@@ -2635,28 +2654,49 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
         <f>AB22*0.1</f>
-        <v>48479</v>
+        <v>27862.9</v>
       </c>
       <c r="AB27" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
+        <v>58000</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" si="17"/>
+        <v>-30137.1</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>AE22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
+      <c r="AF27" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
+        <f>AH22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
+      <c r="AI27" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f>AJ22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
+      <c r="AL27" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1">
         <v>0.05</v>
@@ -2687,26 +2727,47 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
         <f>AB22*0.05</f>
-        <v>24239.5</v>
+        <v>13931.45</v>
       </c>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
+      <c r="AC28" s="3">
+        <f t="shared" si="17"/>
+        <v>13931.45</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>AE22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
+      <c r="AF28" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <f>AH22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
+      <c r="AI28" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f>AJ22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
+      <c r="AL28" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1">
         <v>0.05</v>
@@ -2737,28 +2798,49 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
         <f>AB22*0.05</f>
-        <v>24239.5</v>
+        <v>13931.45</v>
       </c>
       <c r="AB29" s="3">
         <v>26000</v>
       </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
+      <c r="AC29" s="3">
+        <f t="shared" si="17"/>
+        <v>-12068.55</v>
+      </c>
+      <c r="AD29" s="3">
+        <f>AE22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
+      <c r="AF29" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <f>AH22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
+      <c r="AI29" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f>AJ22*0.05</f>
+        <v>0</v>
+      </c>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
+      <c r="AL29" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
         <v>0.15</v>
@@ -2789,26 +2871,47 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
         <f>AB22*0.15</f>
-        <v>72718.5</v>
+        <v>41794.35</v>
       </c>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
+      <c r="AC30" s="3">
+        <f t="shared" si="17"/>
+        <v>41794.35</v>
+      </c>
+      <c r="AD30" s="3">
+        <f>AE22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
+      <c r="AF30" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <f>AH22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
+      <c r="AI30" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f>AJ22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
+      <c r="AL30" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0.15</v>
@@ -2839,26 +2942,49 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
         <f>AB22*0.15</f>
-        <v>72718.5</v>
-      </c>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
+        <v>41794.35</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" si="17"/>
+        <v>-158205.65</v>
+      </c>
+      <c r="AD31" s="3">
+        <f>AE22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
+      <c r="AF31" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <f>AH22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
+      <c r="AI31" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f>AJ22*0.15</f>
+        <v>0</v>
+      </c>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
+      <c r="AL31" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1">
         <v>0.1</v>
@@ -2889,26 +3015,47 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
         <f>AB22*0.1</f>
-        <v>48479</v>
+        <v>27862.9</v>
       </c>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
+      <c r="AC32" s="3">
+        <f t="shared" si="17"/>
+        <v>27862.9</v>
+      </c>
+      <c r="AD32" s="3">
+        <f>AE22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
+      <c r="AF32" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <f>AH22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
+      <c r="AI32" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <f>AJ22*0.1</f>
+        <v>0</v>
+      </c>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
+      <c r="AL32" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D25:D32)</f>
@@ -2942,18 +3089,38 @@
         <f>SUM(Y25:Y32)</f>
         <v>0</v>
       </c>
+      <c r="AA33" s="3">
+        <f>SUM(AA25:AA32)</f>
+        <v>306491.90000000002</v>
+      </c>
       <c r="AB33" s="3">
         <f>SUM(AB25:AB32)</f>
-        <v>55000</v>
+        <v>303000</v>
+      </c>
+      <c r="AC33" s="3">
+        <f>SUM(AC25:AC25)</f>
+        <v>83588.7</v>
+      </c>
+      <c r="AD33" s="3">
+        <f>SUM(AD25:AD32)</f>
+        <v>0</v>
       </c>
       <c r="AE33" s="3">
         <f>SUM(AE25:AE32)</f>
         <v>0</v>
       </c>
+      <c r="AG33" s="3">
+        <f>SUM(AG25:AG32)</f>
+        <v>0</v>
+      </c>
       <c r="AH33" s="3">
         <f>SUM(AH25:AH32)</f>
         <v>0</v>
       </c>
+      <c r="AJ33" s="3">
+        <f>SUM(AJ25:AJ32)</f>
+        <v>0</v>
+      </c>
       <c r="AK33" s="3">
         <f>SUM(AK25:AK32)</f>
         <v>0</v>
@@ -2961,44 +3128,113 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AC33" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48FEE0-0018-4E04-A910-067EF4CC8AB6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87AFD04-586F-4E21-AE98-61C73579E7E3}">
-  <dimension ref="B4:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5">
+        <f>PRESUPUESTO!AA6</f>
+        <v>1300000</v>
+      </c>
+      <c r="D5" s="5">
+        <f>PRESUPUESTO!AB6</f>
+        <v>650000</v>
+      </c>
+      <c r="E5" s="5">
+        <f>C5-D5</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f>PRESUPUESTO!AA21</f>
+        <v>848800</v>
+      </c>
+      <c r="D6" s="5">
+        <f>PRESUPUESTO!AB21</f>
+        <v>371371</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E7" si="0">C6-D6</f>
+        <v>477429</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <f>PRESUPUESTO!AA33</f>
+        <v>306491.90000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f>PRESUPUESTO!AB33</f>
+        <v>303000</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3491.9000000000233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6">
+        <f>C5-(C7+C6)</f>
+        <v>144708.10000000009</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D5-(D7+D6)</f>
+        <v>-24371</v>
+      </c>
+      <c r="E8" s="6">
+        <f>E5-(E7+E6)</f>
+        <v>169079.09999999998</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
-    <sheet name="RESUMEN" sheetId="2" r:id="rId2"/>
+    <sheet name="DEUDAS" sheetId="3" r:id="rId2"/>
+    <sheet name="RESUMEN" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -288,6 +289,84 @@
   </si>
   <si>
     <t>SALDO FINAL</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>MAZRO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>SALDO RESTANTE</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>PRESTAMO ANGELICA</t>
+  </si>
+  <si>
+    <t>ACTIVA</t>
+  </si>
+  <si>
+    <t>PRESTAMO ANDRES</t>
+  </si>
+  <si>
+    <t>PRESTAMO DILZA 1</t>
+  </si>
+  <si>
+    <t>PRESTAMO DILZA 2</t>
+  </si>
+  <si>
+    <t>PRESTAMO ROPA</t>
+  </si>
+  <si>
+    <t>PRESTAMO DILZA 3</t>
+  </si>
+  <si>
+    <t>PRESTAMO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
+  </si>
+  <si>
+    <t>PAGADA</t>
+  </si>
+  <si>
+    <t>Peluqueria</t>
+  </si>
+  <si>
+    <t>ahorro comodidades</t>
   </si>
 </sst>
 </file>
@@ -350,8 +429,35 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6565"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6565"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -361,6 +467,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:Q10" totalsRowShown="0">
+  <autoFilter ref="B2:Q10"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="CONCEPTO"/>
+    <tableColumn id="2" name="MONTO" dataCellStyle="Moneda"/>
+    <tableColumn id="3" name="SALDO RESTANTE" dataCellStyle="Moneda">
+      <calculatedColumnFormula>C3-F3-G3-H3-I3-J3-K3-L3-M3-N3-O3-P3-Q3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="ESTADO"/>
+    <tableColumn id="5" name="ENERO" dataCellStyle="Moneda"/>
+    <tableColumn id="6" name="FEBRERO" dataCellStyle="Moneda"/>
+    <tableColumn id="7" name="MAZRO" dataCellStyle="Moneda"/>
+    <tableColumn id="8" name="ABRIL" dataCellStyle="Moneda"/>
+    <tableColumn id="9" name="MAYO" dataCellStyle="Moneda"/>
+    <tableColumn id="10" name="JUNIO" dataCellStyle="Moneda"/>
+    <tableColumn id="11" name="JULIO" dataCellStyle="Moneda"/>
+    <tableColumn id="12" name="AGOSTO" dataCellStyle="Moneda"/>
+    <tableColumn id="13" name="SEPTIEMBRE" dataCellStyle="Moneda"/>
+    <tableColumn id="14" name="OCTUBRE" dataCellStyle="Moneda"/>
+    <tableColumn id="15" name="NOVIEMBRE" dataCellStyle="Moneda"/>
+    <tableColumn id="16" name="DICIEMBRE" dataCellStyle="Moneda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AO33"/>
+  <dimension ref="A2:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30:AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -707,7 +840,7 @@
     <col min="24" max="25" width="13" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="15.625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="14.875" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="11.375" customWidth="1" outlineLevel="1"/>
     <col min="33" max="34" width="11.375" customWidth="1" outlineLevel="1"/>
@@ -1307,7 +1440,7 @@
         <v>53560</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:Z20" si="9">X9-Y9</f>
+        <f t="shared" ref="Z9:Z21" si="9">X9-Y9</f>
         <v>16440</v>
       </c>
       <c r="AA9" s="4">
@@ -1402,31 +1535,31 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4">
-        <f t="shared" ref="AF10:AF20" si="11">AD10-AE10</f>
+        <f t="shared" ref="AF10:AF21" si="11">AD10-AE10</f>
         <v>0</v>
       </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4">
-        <f t="shared" ref="AI10:AI20" si="12">AG10-AH10</f>
+        <f t="shared" ref="AI10:AI21" si="12">AG10-AH10</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4">
-        <f t="shared" ref="AL10:AL20" si="13">AJ10-AK10</f>
+        <f t="shared" ref="AL10:AL21" si="13">AJ10-AK10</f>
         <v>0</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" ref="AM10:AM20" si="14">SUM(C10,F10,I10,L10,O10,R10,U10,X10,AA10,AD10,AG10,AJ10)</f>
+        <f t="shared" ref="AM10:AM21" si="14">SUM(C10,F10,I10,L10,O10,R10,U10,X10,AA10,AD10,AG10,AJ10)</f>
         <v>260000</v>
       </c>
       <c r="AN10" s="4">
-        <f t="shared" ref="AN10:AN20" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
+        <f t="shared" ref="AN10:AN21" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
         <v>256522</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" ref="AO10:AO20" si="16">AM10-AN10</f>
+        <f t="shared" ref="AO10:AO21" si="16">AM10-AN10</f>
         <v>3478</v>
       </c>
     </row>
@@ -1468,11 +1601,11 @@
         <v>132000</v>
       </c>
       <c r="AB11" s="4">
-        <v>20000</v>
+        <v>58000</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="10"/>
-        <v>112000</v>
+        <v>74000</v>
       </c>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
@@ -1498,11 +1631,11 @@
       </c>
       <c r="AN11" s="4">
         <f t="shared" si="15"/>
-        <v>20000</v>
+        <v>58000</v>
       </c>
       <c r="AO11" s="4">
         <f t="shared" si="16"/>
-        <v>112000</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1693,11 +1826,11 @@
         <v>50000</v>
       </c>
       <c r="AB14" s="4">
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="AC14" s="4">
         <f t="shared" si="10"/>
-        <v>42100</v>
+        <v>27500</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -1723,11 +1856,11 @@
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="15"/>
-        <v>7900</v>
+        <v>22500</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" si="16"/>
-        <v>42100</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2030,7 +2163,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -2058,54 +2191,34 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="4">
-        <v>50000</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>20000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="4">
         <f t="shared" si="10"/>
         <v>30000</v>
       </c>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="AL19" s="4"/>
       <c r="AM19" s="4">
         <f t="shared" si="14"/>
-        <v>50000</v>
-      </c>
-      <c r="AN19" s="4">
-        <f t="shared" si="15"/>
-        <v>20000</v>
-      </c>
-      <c r="AO19" s="4">
-        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -2138,14 +2251,14 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="AB20" s="4">
-        <v>11300</v>
+        <v>20000</v>
       </c>
       <c r="AC20" s="4">
         <f t="shared" si="10"/>
-        <v>88700</v>
+        <v>30000</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -2167,151 +2280,182 @@
       </c>
       <c r="AM20" s="4">
         <f t="shared" si="14"/>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="AN20" s="4">
         <f t="shared" si="15"/>
-        <v>11300</v>
+        <v>20000</v>
       </c>
       <c r="AO20" s="4">
         <f t="shared" si="16"/>
-        <v>88700</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4">
-        <f>SUM(D9:D20)</f>
-        <v>0</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <f>SUM(G9:G20)</f>
-        <v>0</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <f>SUM(J9:J20)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4">
-        <f>SUM(M9:M20)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4">
-        <f>SUM(P9:P20)</f>
-        <v>0</v>
-      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4">
-        <f>SUM(S9:S20)</f>
-        <v>0</v>
-      </c>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4">
-        <f>SUM(V9:V20)</f>
-        <v>0</v>
-      </c>
+      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4">
-        <f>SUM(Y9:Y20)</f>
-        <v>181821</v>
-      </c>
-      <c r="Z21" s="3"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="AA21" s="4">
-        <f>SUM(AA9:AA20)</f>
-        <v>848800</v>
+        <v>100000</v>
       </c>
       <c r="AB21" s="4">
-        <f>SUM(AB9:AB20)</f>
-        <v>371371</v>
+        <v>11300</v>
       </c>
       <c r="AC21" s="4">
-        <f>SUM(AC9:AC20)</f>
-        <v>477429</v>
+        <f t="shared" si="10"/>
+        <v>88700</v>
       </c>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4">
-        <f>SUM(AE9:AE20)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4">
-        <f>SUM(AH9:AH20)</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AJ21" s="4"/>
-      <c r="AK21" s="4">
-        <f>SUM(AK9:AK20)</f>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4">
+        <f t="shared" si="14"/>
+        <v>100000</v>
+      </c>
+      <c r="AN21" s="4">
+        <f t="shared" si="15"/>
+        <v>11300</v>
+      </c>
+      <c r="AO21" s="4">
+        <f t="shared" si="16"/>
+        <v>88700</v>
+      </c>
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <f>SUM(D9:D21)</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <f>SUM(G9:G21)</f>
+        <v>0</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <f>SUM(J9:J21)</f>
+        <v>0</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <f>SUM(M9:M21)</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4">
+        <f>SUM(P9:P21)</f>
+        <v>0</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="S22" s="4">
+        <f>SUM(S9:S21)</f>
+        <v>0</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="V22" s="4">
+        <f>SUM(V9:V21)</f>
+        <v>0</v>
+      </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="Y22" s="4">
+        <f>SUM(Y9:Y21)</f>
+        <v>181821</v>
+      </c>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="4"/>
+      <c r="AA22" s="4">
+        <f>SUM(AA9:AA21)</f>
+        <v>878800</v>
+      </c>
       <c r="AB22" s="4">
-        <f>AB6-AB21</f>
-        <v>278629</v>
-      </c>
-      <c r="AC22" s="4"/>
+        <f>SUM(AB9:AB21)</f>
+        <v>423971</v>
+      </c>
+      <c r="AC22" s="4">
+        <f>SUM(AC9:AC21)</f>
+        <v>454829</v>
+      </c>
       <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
+      <c r="AE22" s="4">
+        <f>SUM(AE9:AE21)</f>
+        <v>0</v>
+      </c>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
+      <c r="AH22" s="4">
+        <f>SUM(AH9:AH21)</f>
+        <v>0</v>
+      </c>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
+      <c r="AK22" s="4">
+        <f>SUM(AK9:AK21)</f>
+        <v>0</v>
+      </c>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
     </row>
     <row r="23" spans="1:41">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2335,9 +2479,12 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="Z23" s="3"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
+      <c r="AB23" s="4">
+        <f>AB6-AB22</f>
+        <v>226029</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
@@ -2353,207 +2500,177 @@
       <c r="AO23" s="4"/>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>40</v>
-      </c>
-      <c r="P24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" t="s">
-        <v>37</v>
-      </c>
-      <c r="U24" t="s">
-        <v>44</v>
-      </c>
-      <c r="V24" t="s">
-        <v>45</v>
-      </c>
-      <c r="W24" t="s">
-        <v>37</v>
-      </c>
-      <c r="X24" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>58</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3">
-        <f>AB22*0.3</f>
-        <v>83588.7</v>
-      </c>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3">
-        <f>AA25-AB25</f>
-        <v>83588.7</v>
-      </c>
-      <c r="AD25" s="3">
-        <f>AE22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3">
-        <f>AD25-AE25</f>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="3">
-        <f>AH22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3">
-        <f>AG25-AH25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="3">
-        <f>AJ22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3">
-        <f>AJ25-AK25</f>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s">
+        <v>44</v>
+      </c>
+      <c r="V25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W25" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2580,41 +2697,39 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
-        <f>AB22*0.2</f>
-        <v>55725.8</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>19000</v>
-      </c>
+        <f>AB23*0.3</f>
+        <v>67808.7</v>
+      </c>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="3">
-        <f t="shared" ref="AC26:AC32" si="17">AA26-AB26</f>
-        <v>36725.800000000003</v>
+        <f>AA26-AB26</f>
+        <v>67808.7</v>
       </c>
       <c r="AD26" s="3">
-        <f>AE22*0.2</f>
+        <f>AE23*0.3</f>
         <v>0</v>
       </c>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AF32" si="18">AD26-AE26</f>
+        <f>AD26-AE26</f>
         <v>0</v>
       </c>
       <c r="AG26" s="3">
-        <f>AH22*0.2</f>
+        <f>AH23*0.3</f>
         <v>0</v>
       </c>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3">
-        <f t="shared" ref="AI26:AI32" si="19">AG26-AH26</f>
+        <f>AG26-AH26</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
-        <f>AJ22*0.2</f>
+        <f>AJ23*0.3</f>
         <v>0</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AL32" si="20">AJ26-AK26</f>
+        <f>AJ26-AK26</f>
         <v>0</v>
       </c>
       <c r="AM26" s="3"/>
@@ -2623,10 +2738,10 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2653,41 +2768,41 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
-        <f>AB22*0.1</f>
-        <v>27862.9</v>
+        <f>AB23*0.2</f>
+        <v>45205.8</v>
       </c>
       <c r="AB27" s="3">
-        <v>58000</v>
+        <v>19000</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="17"/>
-        <v>-30137.1</v>
+        <f t="shared" ref="AC27:AC34" si="17">AA27-AB27</f>
+        <v>26205.800000000003</v>
       </c>
       <c r="AD27" s="3">
-        <f>AE22*0.1</f>
+        <f>AE23*0.2</f>
         <v>0</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AF27:AF34" si="18">AD27-AE27</f>
         <v>0</v>
       </c>
       <c r="AG27" s="3">
-        <f>AH22*0.1</f>
+        <f>AH23*0.2</f>
         <v>0</v>
       </c>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AI27:AI34" si="19">AG27-AH27</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <f>AJ22*0.1</f>
+        <f>AJ23*0.2</f>
         <v>0</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AL27:AL34" si="20">AJ27-AK27</f>
         <v>0</v>
       </c>
       <c r="AM27" s="3"/>
@@ -2696,10 +2811,10 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2726,16 +2841,18 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
-        <f>AB22*0.05</f>
-        <v>13931.45</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <f>AB23*0.1</f>
+        <v>22602.9</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>58000</v>
+      </c>
       <c r="AC28" s="3">
         <f t="shared" si="17"/>
-        <v>13931.45</v>
+        <v>-35397.1</v>
       </c>
       <c r="AD28" s="3">
-        <f>AE22*0.05</f>
+        <f>AE23*0.1</f>
         <v>0</v>
       </c>
       <c r="AE28" s="3"/>
@@ -2744,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="3">
-        <f>AH22*0.05</f>
+        <f>AH23*0.1</f>
         <v>0</v>
       </c>
       <c r="AH28" s="3"/>
@@ -2753,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
-        <f>AJ22*0.05</f>
+        <f>AJ23*0.1</f>
         <v>0</v>
       </c>
       <c r="AK28" s="3"/>
@@ -2767,7 +2884,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1">
         <v>0.05</v>
@@ -2797,18 +2914,16 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
-        <f>AB22*0.05</f>
-        <v>13931.45</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>26000</v>
-      </c>
+        <f>AB23*0.05</f>
+        <v>11301.45</v>
+      </c>
+      <c r="AB29" s="3"/>
       <c r="AC29" s="3">
         <f t="shared" si="17"/>
-        <v>-12068.55</v>
+        <v>11301.45</v>
       </c>
       <c r="AD29" s="3">
-        <f>AE22*0.05</f>
+        <f>AE23*0.05</f>
         <v>0</v>
       </c>
       <c r="AE29" s="3"/>
@@ -2817,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="3">
-        <f>AH22*0.05</f>
+        <f>AH23*0.05</f>
         <v>0</v>
       </c>
       <c r="AH29" s="3"/>
@@ -2826,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
-        <f>AJ22*0.05</f>
+        <f>AJ23*0.05</f>
         <v>0</v>
       </c>
       <c r="AK29" s="3"/>
@@ -2840,10 +2955,10 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2870,16 +2985,18 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
-        <f>AB22*0.15</f>
-        <v>41794.35</v>
-      </c>
-      <c r="AB30" s="3"/>
+        <f>AB23*0.05</f>
+        <v>11301.45</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>26000</v>
+      </c>
       <c r="AC30" s="3">
         <f t="shared" si="17"/>
-        <v>41794.35</v>
+        <v>-14698.55</v>
       </c>
       <c r="AD30" s="3">
-        <f>AE22*0.15</f>
+        <f>AE$23*0.05</f>
         <v>0</v>
       </c>
       <c r="AE30" s="3"/>
@@ -2888,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="3">
-        <f>AH22*0.15</f>
+        <f>AH23*0.05</f>
         <v>0</v>
       </c>
       <c r="AH30" s="3"/>
@@ -2897,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
-        <f>AJ22*0.15</f>
+        <f>AJ23*0.05</f>
         <v>0</v>
       </c>
       <c r="AK30" s="3"/>
@@ -2911,10 +3028,10 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2941,18 +3058,16 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
-        <f>AB22*0.15</f>
-        <v>41794.35</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>200000</v>
-      </c>
+        <f>AB23*0.05</f>
+        <v>11301.45</v>
+      </c>
+      <c r="AB31" s="3"/>
       <c r="AC31" s="3">
         <f t="shared" si="17"/>
-        <v>-158205.65</v>
+        <v>11301.45</v>
       </c>
       <c r="AD31" s="3">
-        <f>AE22*0.15</f>
+        <f>AE$23*0.05</f>
         <v>0</v>
       </c>
       <c r="AE31" s="3"/>
@@ -2961,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="3">
-        <f>AH22*0.15</f>
+        <f>AH24*0.05</f>
         <v>0</v>
       </c>
       <c r="AH31" s="3"/>
@@ -2970,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
-        <f>AJ22*0.15</f>
+        <f>AJ24*0.05</f>
         <v>0</v>
       </c>
       <c r="AK31" s="3"/>
@@ -2984,10 +3099,10 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3014,16 +3129,16 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
-        <f>AB22*0.1</f>
-        <v>27862.9</v>
+        <f>AB23*0.15</f>
+        <v>33904.35</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3">
         <f t="shared" si="17"/>
-        <v>27862.9</v>
+        <v>33904.35</v>
       </c>
       <c r="AD32" s="3">
-        <f>AE22*0.1</f>
+        <f>AE23*0.15</f>
         <v>0</v>
       </c>
       <c r="AE32" s="3"/>
@@ -3032,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="3">
-        <f>AH22*0.1</f>
+        <f>AH23*0.15</f>
         <v>0</v>
       </c>
       <c r="AH32" s="3"/>
@@ -3041,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
-        <f>AJ22*0.1</f>
+        <f>AJ23*0.15</f>
         <v>0</v>
       </c>
       <c r="AK32" s="3"/>
@@ -3053,88 +3168,545 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3">
+        <f>AB23*0.15</f>
+        <v>33904.35</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AC33" s="3">
+        <f t="shared" si="17"/>
+        <v>-166095.65</v>
+      </c>
+      <c r="AD33" s="3">
+        <f>AE23*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3">
+        <f>AH23*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <f>AJ23*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3">
+        <f>AB23*0.1</f>
+        <v>22602.9</v>
+      </c>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3">
+        <f t="shared" si="17"/>
+        <v>22602.9</v>
+      </c>
+      <c r="AD34" s="3">
+        <f>AE23*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <f>AH23*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f>AJ23*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="3">
-        <f>SUM(D25:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <f>SUM(G25:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <f>SUM(J25:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <f>SUM(M25:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f>SUM(P25:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <f>SUM(S25:S32)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <f>SUM(V25:V32)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <f>SUM(Y25:Y32)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
-        <f>SUM(AA25:AA32)</f>
-        <v>306491.90000000002</v>
-      </c>
-      <c r="AB33" s="3">
-        <f>SUM(AB25:AB32)</f>
+      <c r="D35" s="3">
+        <f>SUM(D26:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f>SUM(G26:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f>SUM(J26:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f>SUM(M26:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f>SUM(P26:P34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <f>SUM(S26:S34)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <f>SUM(V26:V34)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <f>SUM(Y26:Y34)</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <f>SUM(AA26:AA34)</f>
+        <v>259933.35000000003</v>
+      </c>
+      <c r="AB35" s="3">
+        <f>SUM(AB26:AB34)</f>
         <v>303000</v>
       </c>
-      <c r="AC33" s="3">
-        <f>SUM(AC25:AC25)</f>
-        <v>83588.7</v>
-      </c>
-      <c r="AD33" s="3">
-        <f>SUM(AD25:AD32)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="3">
-        <f>SUM(AE25:AE32)</f>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="3">
-        <f>SUM(AG25:AG32)</f>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="3">
-        <f>SUM(AH25:AH32)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="3">
-        <f>SUM(AJ25:AJ32)</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="3">
-        <f>SUM(AK25:AK32)</f>
+      <c r="AC35" s="3">
+        <f>SUM(AC26:AC26)</f>
+        <v>67808.7</v>
+      </c>
+      <c r="AD35" s="3">
+        <f>SUM(AD26:AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <f>SUM(AE26:AE34)</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3">
+        <f>SUM(AG26:AG34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3">
+        <f>SUM(AH26:AH34)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f>SUM(AJ26:AJ34)</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <f>SUM(AK26:AK34)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AC33" formula="1"/>
+    <ignoredError sqref="AC35" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5">
+        <v>120000</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D10" si="0">C3-F3-G3-H3-I3-J3-K3-L3-M3-N3-O3-P3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <v>120000</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>376000</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="5">
+        <v>519000</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>519000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5">
+        <v>110000</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5">
+        <v>385000</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>385000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5">
+        <v>185000</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>185000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600000</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:Q10">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PAGADA">
+      <formula>NOT(ISERROR(SEARCH("PAGADA",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ACTIVA">
+      <formula>NOT(ISERROR(SEARCH("ACTIVA",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:Q3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D3&gt;$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E8"/>
   <sheetViews>
@@ -3191,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <f>PRESUPUESTO!AA21</f>
-        <v>848800</v>
+        <f>PRESUPUESTO!AA22</f>
+        <v>878800</v>
       </c>
       <c r="D6" s="5">
-        <f>PRESUPUESTO!AB21</f>
-        <v>371371</v>
+        <f>PRESUPUESTO!AB22</f>
+        <v>423971</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E7" si="0">C6-D6</f>
-        <v>477429</v>
+        <v>454829</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3208,16 +3780,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <f>PRESUPUESTO!AA33</f>
-        <v>306491.90000000002</v>
+        <f>PRESUPUESTO!AA35</f>
+        <v>259933.35000000003</v>
       </c>
       <c r="D7" s="5">
-        <f>PRESUPUESTO!AB33</f>
+        <f>PRESUPUESTO!AB35</f>
         <v>303000</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>3491.9000000000233</v>
+        <v>-43066.649999999965</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3226,15 +3798,15 @@
       </c>
       <c r="C8" s="6">
         <f>C5-(C7+C6)</f>
-        <v>144708.10000000009</v>
+        <v>161266.64999999991</v>
       </c>
       <c r="D8" s="6">
         <f>D5-(D7+D6)</f>
-        <v>-24371</v>
+        <v>-76971</v>
       </c>
       <c r="E8" s="6">
         <f>E5-(E7+E6)</f>
-        <v>169079.09999999998</v>
+        <v>238237.64999999997</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson.Daza\Documents\Sebastian Carrero\programacion2024\proyectos2024\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DILZA RAMIREZ\sebastian carrero\programacion\proyectos2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DEUDAS" sheetId="3" r:id="rId2"/>
     <sheet name="RESUMEN" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30:AL31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2845,11 +2845,11 @@
         <v>22602.9</v>
       </c>
       <c r="AB28" s="3">
-        <v>58000</v>
+        <v>72000</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="17"/>
-        <v>-35397.1</v>
+        <v>-49397.1</v>
       </c>
       <c r="AD28" s="3">
         <f>AE23*0.1</f>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="AB35" s="3">
         <f>SUM(AB26:AB34)</f>
-        <v>303000</v>
+        <v>317000</v>
       </c>
       <c r="AC35" s="3">
         <f>SUM(AC26:AC26)</f>
@@ -3785,11 +3785,11 @@
       </c>
       <c r="D7" s="5">
         <f>PRESUPUESTO!AB35</f>
-        <v>303000</v>
+        <v>317000</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>-43066.649999999965</v>
+        <v>-57066.649999999965</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="D8" s="6">
         <f>D5-(D7+D6)</f>
-        <v>-76971</v>
+        <v>-90971</v>
       </c>
       <c r="E8" s="6">
         <f>E5-(E7+E6)</f>
-        <v>238237.64999999997</v>
+        <v>252237.64999999997</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
-    <sheet name="DEUDAS" sheetId="3" r:id="rId2"/>
-    <sheet name="RESUMEN" sheetId="2" r:id="rId3"/>
+    <sheet name="RESUMEN" sheetId="2" r:id="rId2"/>
+    <sheet name="DEUDAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30:AL31"/>
+    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1085,10 +1085,12 @@
       <c r="AA4" s="3">
         <v>650000</v>
       </c>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="3">
+        <v>650000</v>
+      </c>
       <c r="AC4" s="3">
         <f t="shared" ref="AC4:AC5" si="1">AA4-AB4</f>
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -1114,11 +1116,11 @@
       </c>
       <c r="AN4" s="3">
         <f t="shared" ref="AN4:AN5" si="6">SUM(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4,AH4,AK4)</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AO4" s="3">
         <f t="shared" ref="AO4:AO5" si="7">AM4-AN4</f>
-        <v>650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1252,11 +1254,11 @@
       </c>
       <c r="AB6" s="3">
         <f>SUM(AB3:AB5)</f>
-        <v>650000</v>
+        <v>1300000</v>
       </c>
       <c r="AC6" s="3">
         <f>SUM(AC3:AC5)</f>
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3">
@@ -1676,11 +1678,11 @@
         <v>160000</v>
       </c>
       <c r="AB12" s="4">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="10"/>
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
@@ -1706,11 +1708,11 @@
       </c>
       <c r="AN12" s="4">
         <f t="shared" si="15"/>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="AO12" s="4">
         <f t="shared" si="16"/>
-        <v>80000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1826,11 +1828,11 @@
         <v>50000</v>
       </c>
       <c r="AB14" s="4">
-        <v>22500</v>
+        <v>28600</v>
       </c>
       <c r="AC14" s="4">
         <f t="shared" si="10"/>
-        <v>27500</v>
+        <v>21400</v>
       </c>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -1856,11 +1858,11 @@
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="15"/>
-        <v>22500</v>
+        <v>28600</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" si="16"/>
-        <v>27500</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1900,10 +1902,12 @@
       <c r="AA15" s="4">
         <v>40000</v>
       </c>
-      <c r="AB15" s="4"/>
+      <c r="AB15" s="4">
+        <v>42821</v>
+      </c>
       <c r="AC15" s="4">
         <f t="shared" si="10"/>
-        <v>40000</v>
+        <v>-2821</v>
       </c>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -1929,11 +1933,11 @@
       </c>
       <c r="AN15" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>42821</v>
       </c>
       <c r="AO15" s="4">
         <f t="shared" si="16"/>
-        <v>40000</v>
+        <v>-2821</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2424,11 +2428,11 @@
       </c>
       <c r="AB22" s="4">
         <f>SUM(AB9:AB21)</f>
-        <v>423971</v>
+        <v>512892</v>
       </c>
       <c r="AC22" s="4">
         <f>SUM(AC9:AC21)</f>
-        <v>454829</v>
+        <v>365908</v>
       </c>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4">
@@ -2483,7 +2487,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4">
         <f>AB6-AB22</f>
-        <v>226029</v>
+        <v>787108</v>
       </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2698,12 +2702,12 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
         <f>AB23*0.3</f>
-        <v>67808.7</v>
+        <v>236132.4</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
         <f>AA26-AB26</f>
-        <v>67808.7</v>
+        <v>236132.4</v>
       </c>
       <c r="AD26" s="3">
         <f>AE23*0.3</f>
@@ -2769,14 +2773,14 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
         <f>AB23*0.2</f>
-        <v>45205.8</v>
+        <v>157421.6</v>
       </c>
       <c r="AB27" s="3">
         <v>19000</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ref="AC27:AC34" si="17">AA27-AB27</f>
-        <v>26205.800000000003</v>
+        <v>138421.6</v>
       </c>
       <c r="AD27" s="3">
         <f>AE23*0.2</f>
@@ -2842,14 +2846,14 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
         <f>AB23*0.1</f>
-        <v>22602.9</v>
+        <v>78710.8</v>
       </c>
       <c r="AB28" s="3">
-        <v>58000</v>
+        <v>78000</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="17"/>
-        <v>-35397.1</v>
+        <v>710.80000000000291</v>
       </c>
       <c r="AD28" s="3">
         <f>AE23*0.1</f>
@@ -2915,12 +2919,12 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
         <f>AB23*0.05</f>
-        <v>11301.45</v>
+        <v>39355.4</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3">
         <f t="shared" si="17"/>
-        <v>11301.45</v>
+        <v>39355.4</v>
       </c>
       <c r="AD29" s="3">
         <f>AE23*0.05</f>
@@ -2986,14 +2990,14 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
         <f>AB23*0.05</f>
-        <v>11301.45</v>
+        <v>39355.4</v>
       </c>
       <c r="AB30" s="3">
         <v>26000</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" si="17"/>
-        <v>-14698.55</v>
+        <v>13355.400000000001</v>
       </c>
       <c r="AD30" s="3">
         <f>AE$23*0.05</f>
@@ -3059,12 +3063,12 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
         <f>AB23*0.05</f>
-        <v>11301.45</v>
+        <v>39355.4</v>
       </c>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3">
         <f t="shared" si="17"/>
-        <v>11301.45</v>
+        <v>39355.4</v>
       </c>
       <c r="AD31" s="3">
         <f>AE$23*0.05</f>
@@ -3130,12 +3134,12 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
         <f>AB23*0.15</f>
-        <v>33904.35</v>
+        <v>118066.2</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3">
         <f t="shared" si="17"/>
-        <v>33904.35</v>
+        <v>118066.2</v>
       </c>
       <c r="AD32" s="3">
         <f>AE23*0.15</f>
@@ -3201,14 +3205,14 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f>AB23*0.15</f>
-        <v>33904.35</v>
+        <v>118066.2</v>
       </c>
       <c r="AB33" s="3">
         <v>200000</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" si="17"/>
-        <v>-166095.65</v>
+        <v>-81933.8</v>
       </c>
       <c r="AD33" s="3">
         <f>AE23*0.15</f>
@@ -3274,12 +3278,12 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
         <f>AB23*0.1</f>
-        <v>22602.9</v>
+        <v>78710.8</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3">
         <f t="shared" si="17"/>
-        <v>22602.9</v>
+        <v>78710.8</v>
       </c>
       <c r="AD34" s="3">
         <f>AE23*0.1</f>
@@ -3350,15 +3354,15 @@
       </c>
       <c r="AA35" s="3">
         <f>SUM(AA26:AA34)</f>
-        <v>259933.35000000003</v>
+        <v>905174.2</v>
       </c>
       <c r="AB35" s="3">
         <f>SUM(AB26:AB34)</f>
-        <v>303000</v>
+        <v>323000</v>
       </c>
       <c r="AC35" s="3">
         <f>SUM(AC26:AC26)</f>
-        <v>67808.7</v>
+        <v>236132.4</v>
       </c>
       <c r="AD35" s="3">
         <f>SUM(AD26:AD34)</f>
@@ -3394,6 +3398,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5">
+        <f>PRESUPUESTO!AA6</f>
+        <v>1300000</v>
+      </c>
+      <c r="D5" s="5">
+        <f>PRESUPUESTO!AB6</f>
+        <v>1300000</v>
+      </c>
+      <c r="E5" s="5">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f>PRESUPUESTO!AA22</f>
+        <v>878800</v>
+      </c>
+      <c r="D6" s="5">
+        <f>PRESUPUESTO!AB22</f>
+        <v>512892</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E7" si="0">C6-D6</f>
+        <v>365908</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <f>PRESUPUESTO!AA35</f>
+        <v>905174.2</v>
+      </c>
+      <c r="D7" s="5">
+        <f>PRESUPUESTO!AB35</f>
+        <v>323000</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>582174.19999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6">
+        <f>C5-(C7+C6)</f>
+        <v>-483974.19999999995</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D5-(D7+D6)</f>
+        <v>464108</v>
+      </c>
+      <c r="E8" s="6">
+        <f>E5-(E7+E6)</f>
+        <v>-948082.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q10"/>
   <sheetViews>
@@ -3704,112 +3816,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="5">
-        <f>PRESUPUESTO!AA6</f>
-        <v>1300000</v>
-      </c>
-      <c r="D5" s="5">
-        <f>PRESUPUESTO!AB6</f>
-        <v>650000</v>
-      </c>
-      <c r="E5" s="5">
-        <f>C5-D5</f>
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <f>PRESUPUESTO!AA22</f>
-        <v>878800</v>
-      </c>
-      <c r="D6" s="5">
-        <f>PRESUPUESTO!AB22</f>
-        <v>423971</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:E7" si="0">C6-D6</f>
-        <v>454829</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <f>PRESUPUESTO!AA35</f>
-        <v>259933.35000000003</v>
-      </c>
-      <c r="D7" s="5">
-        <f>PRESUPUESTO!AB35</f>
-        <v>303000</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>-43066.649999999965</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6">
-        <f>C5-(C7+C6)</f>
-        <v>161266.64999999991</v>
-      </c>
-      <c r="D8" s="6">
-        <f>D5-(D7+D6)</f>
-        <v>-76971</v>
-      </c>
-      <c r="E8" s="6">
-        <f>E5-(E7+E6)</f>
-        <v>238237.64999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>ahorro comodidades</t>
+  </si>
+  <si>
+    <t>Telefonia</t>
   </si>
 </sst>
 </file>
@@ -813,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AO35"/>
+  <dimension ref="A2:AO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -839,10 +842,12 @@
     <col min="23" max="23" width="11.375" collapsed="1"/>
     <col min="24" max="25" width="13" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="14.125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="14.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="14.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="13.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.375" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="11.375" customWidth="1" outlineLevel="1"/>
     <col min="36" max="37" width="11.375" customWidth="1" outlineLevel="1"/>
     <col min="39" max="41" width="13" bestFit="1" customWidth="1"/>
@@ -1017,11 +1022,13 @@
         <f>AA3-AB3</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3">
+        <v>650000</v>
+      </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3">
         <f>AD3-AE3</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
@@ -1037,7 +1044,7 @@
       </c>
       <c r="AM3" s="3">
         <f>SUM(C3,F3,I3,L3,O3,R3,U3,X3,AA3,AD3,AG3,AJ3)</f>
-        <v>650000</v>
+        <v>1300000</v>
       </c>
       <c r="AN3" s="3">
         <f>SUM(D3,G3,J3,M3,P3,S3,V3,Y3,AB3,AE3,AH3,AK3)</f>
@@ -1045,7 +1052,7 @@
       </c>
       <c r="AO3" s="3">
         <f>AM3-AN3</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1092,11 +1099,13 @@
         <f t="shared" ref="AC4:AC5" si="1">AA4-AB4</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="3">
+        <v>650000</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3">
         <f t="shared" ref="AF4:AF5" si="2">AD4-AE4</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
@@ -1112,7 +1121,7 @@
       </c>
       <c r="AM4" s="3">
         <f t="shared" ref="AM4:AM5" si="5">SUM(C4,F4,I4,L4,O4,R4,U4,X4,AA4,AD4,AG4,AJ4)</f>
-        <v>650000</v>
+        <v>1300000</v>
       </c>
       <c r="AN4" s="3">
         <f t="shared" ref="AN4:AN5" si="6">SUM(D4,G4,J4,M4,P4,S4,V4,Y4,AB4,AE4,AH4,AK4)</f>
@@ -1120,7 +1129,7 @@
       </c>
       <c r="AO4" s="3">
         <f t="shared" ref="AO4:AO5" si="7">AM4-AN4</f>
-        <v>0</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1260,7 +1269,10 @@
         <f>SUM(AC3:AC5)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="3"/>
+      <c r="AD6" s="3">
+        <f>SUM(AD3:AD5)</f>
+        <v>1300000</v>
+      </c>
       <c r="AE6" s="3">
         <f>SUM(AE3:AE5)</f>
         <v>0</v>
@@ -1442,7 +1454,7 @@
         <v>53560</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9:Z21" si="9">X9-Y9</f>
+        <f t="shared" ref="Z9:Z22" si="9">X9-Y9</f>
         <v>16440</v>
       </c>
       <c r="AA9" s="4">
@@ -1455,11 +1467,15 @@
         <f>AA9-AB9</f>
         <v>16440</v>
       </c>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
+      <c r="AD9" s="4">
+        <v>70000</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>61400</v>
+      </c>
       <c r="AF9" s="4">
         <f>AD9-AE9</f>
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
@@ -1475,15 +1491,15 @@
       </c>
       <c r="AM9" s="4">
         <f>SUM(C9,F9,I9,L9,O9,R9,U9,X9,AA9,AD9,AG9,AJ9)</f>
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="AN9" s="4">
         <f>SUM(D9,G9,J9,M9,P9,S9,V9,Y9,AB9,AE9,AH9,AK9)</f>
-        <v>107120</v>
+        <v>168520</v>
       </c>
       <c r="AO9" s="4">
         <f>AM9-AN9</f>
-        <v>32880</v>
+        <v>41480</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1531,38 +1547,40 @@
         <v>128261</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" ref="AC10:AC21" si="10">AA10-AB10</f>
+        <f t="shared" ref="AC10:AC22" si="10">AA10-AB10</f>
         <v>1739</v>
       </c>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="4">
+        <v>130000</v>
+      </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4">
-        <f t="shared" ref="AF10:AF21" si="11">AD10-AE10</f>
-        <v>0</v>
+        <f t="shared" ref="AF10:AF23" si="11">AD10-AE10</f>
+        <v>130000</v>
       </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4">
-        <f t="shared" ref="AI10:AI21" si="12">AG10-AH10</f>
+        <f t="shared" ref="AI10:AI22" si="12">AG10-AH10</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4">
-        <f t="shared" ref="AL10:AL21" si="13">AJ10-AK10</f>
+        <f t="shared" ref="AL10:AL22" si="13">AJ10-AK10</f>
         <v>0</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" ref="AM10:AM21" si="14">SUM(C10,F10,I10,L10,O10,R10,U10,X10,AA10,AD10,AG10,AJ10)</f>
-        <v>260000</v>
+        <f t="shared" ref="AM10:AM22" si="14">SUM(C10,F10,I10,L10,O10,R10,U10,X10,AA10,AD10,AG10,AJ10)</f>
+        <v>390000</v>
       </c>
       <c r="AN10" s="4">
-        <f t="shared" ref="AN10:AN21" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
+        <f t="shared" ref="AN10:AN22" si="15">SUM(D10,G10,J10,M10,P10,S10,V10,Y10,AB10,AE10,AH10,AK10)</f>
         <v>256522</v>
       </c>
       <c r="AO10" s="4">
-        <f t="shared" ref="AO10:AO21" si="16">AM10-AN10</f>
-        <v>3478</v>
+        <f t="shared" ref="AO10:AO22" si="16">AM10-AN10</f>
+        <v>133478</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1609,11 +1627,13 @@
         <f t="shared" si="10"/>
         <v>74000</v>
       </c>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="4">
+        <v>132000</v>
+      </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>132000</v>
       </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
@@ -1629,7 +1649,7 @@
       </c>
       <c r="AM11" s="4">
         <f t="shared" si="14"/>
-        <v>132000</v>
+        <v>264000</v>
       </c>
       <c r="AN11" s="4">
         <f t="shared" si="15"/>
@@ -1637,7 +1657,7 @@
       </c>
       <c r="AO11" s="4">
         <f t="shared" si="16"/>
-        <v>74000</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1684,11 +1704,15 @@
         <f t="shared" si="10"/>
         <v>40000</v>
       </c>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
+      <c r="AD12" s="4">
+        <v>160000</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>40000</v>
+      </c>
       <c r="AF12" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -1704,15 +1728,15 @@
       </c>
       <c r="AM12" s="4">
         <f t="shared" si="14"/>
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="AN12" s="4">
         <f t="shared" si="15"/>
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="AO12" s="4">
         <f t="shared" si="16"/>
-        <v>40000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1759,11 +1783,15 @@
         <f t="shared" si="10"/>
         <v>59100</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
+      <c r="AD13" s="4">
+        <v>160000</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>30900</v>
+      </c>
       <c r="AF13" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>129100</v>
       </c>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
@@ -1779,15 +1807,15 @@
       </c>
       <c r="AM13" s="4">
         <f t="shared" si="14"/>
-        <v>80000</v>
+        <v>240000</v>
       </c>
       <c r="AN13" s="4">
         <f t="shared" si="15"/>
-        <v>20900</v>
+        <v>51800</v>
       </c>
       <c r="AO13" s="4">
         <f t="shared" si="16"/>
-        <v>59100</v>
+        <v>188200</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1834,11 +1862,13 @@
         <f t="shared" si="10"/>
         <v>21400</v>
       </c>
-      <c r="AD14" s="4"/>
+      <c r="AD14" s="4">
+        <v>50000</v>
+      </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
@@ -1854,7 +1884,7 @@
       </c>
       <c r="AM14" s="4">
         <f t="shared" si="14"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="15"/>
@@ -1862,7 +1892,7 @@
       </c>
       <c r="AO14" s="4">
         <f t="shared" si="16"/>
-        <v>21400</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1909,11 +1939,13 @@
         <f t="shared" si="10"/>
         <v>-2821</v>
       </c>
-      <c r="AD15" s="4"/>
+      <c r="AD15" s="4">
+        <v>40000</v>
+      </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
@@ -1929,7 +1961,7 @@
       </c>
       <c r="AM15" s="4">
         <f t="shared" si="14"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="AN15" s="4">
         <f t="shared" si="15"/>
@@ -1937,7 +1969,7 @@
       </c>
       <c r="AO15" s="4">
         <f t="shared" si="16"/>
-        <v>-2821</v>
+        <v>37179</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -1984,11 +2016,13 @@
         <f t="shared" si="10"/>
         <v>7350</v>
       </c>
-      <c r="AD16" s="4"/>
+      <c r="AD16" s="4">
+        <v>10000</v>
+      </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
@@ -2004,7 +2038,7 @@
       </c>
       <c r="AM16" s="4">
         <f t="shared" si="14"/>
-        <v>9800</v>
+        <v>19800</v>
       </c>
       <c r="AN16" s="4">
         <f t="shared" si="15"/>
@@ -2012,7 +2046,7 @@
       </c>
       <c r="AO16" s="4">
         <f t="shared" si="16"/>
-        <v>7350</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2059,8 +2093,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
+      <c r="AD17" s="4">
+        <v>12000</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>12000</v>
+      </c>
       <c r="AF17" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2079,11 +2117,11 @@
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="14"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="AN17" s="4">
         <f t="shared" si="15"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="AO17" s="4">
         <f t="shared" si="16"/>
@@ -2134,11 +2172,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="4"/>
+      <c r="AD18" s="4">
+        <v>15000</v>
+      </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -2154,7 +2194,7 @@
       </c>
       <c r="AM18" s="4">
         <f t="shared" si="14"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="AN18" s="4">
         <f t="shared" si="15"/>
@@ -2162,7 +2202,7 @@
       </c>
       <c r="AO18" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2204,9 +2244,14 @@
         <f t="shared" si="10"/>
         <v>30000</v>
       </c>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="4">
+        <v>30000</v>
+      </c>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
+      <c r="AF19" s="4">
+        <f t="shared" si="11"/>
+        <v>30000</v>
+      </c>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
@@ -2215,7 +2260,7 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4">
         <f t="shared" si="14"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
@@ -2264,11 +2309,13 @@
         <f t="shared" si="10"/>
         <v>30000</v>
       </c>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="4">
+        <v>40000</v>
+      </c>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -2284,7 +2331,7 @@
       </c>
       <c r="AM20" s="4">
         <f t="shared" si="14"/>
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="AN20" s="4">
         <f t="shared" si="15"/>
@@ -2292,12 +2339,12 @@
       </c>
       <c r="AO20" s="4">
         <f t="shared" si="16"/>
-        <v>30000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -2325,185 +2372,201 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>100000</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>11300</v>
-      </c>
-      <c r="AC21" s="4">
-        <f t="shared" si="10"/>
-        <v>88700</v>
-      </c>
-      <c r="AD21" s="4"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4">
+        <v>17000</v>
+      </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
-      <c r="AL21" s="4">
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>11300</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" si="10"/>
+        <v>88700</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4">
+        <f t="shared" si="11"/>
+        <v>100000</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AM22" s="4">
         <f t="shared" si="14"/>
-        <v>100000</v>
-      </c>
-      <c r="AN21" s="4">
+        <v>200000</v>
+      </c>
+      <c r="AN22" s="4">
         <f t="shared" si="15"/>
         <v>11300</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO22" s="4">
         <f t="shared" si="16"/>
-        <v>88700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
-        <f>SUM(D9:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <f>SUM(G9:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <f>SUM(J9:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
-        <f>SUM(M9:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
-        <f>SUM(P9:P21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4">
-        <f>SUM(S9:S21)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4">
-        <f>SUM(V9:V21)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4">
-        <f>SUM(Y9:Y21)</f>
-        <v>181821</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="4">
-        <f>SUM(AA9:AA21)</f>
-        <v>878800</v>
-      </c>
-      <c r="AB22" s="4">
-        <f>SUM(AB9:AB21)</f>
-        <v>512892</v>
-      </c>
-      <c r="AC22" s="4">
-        <f>SUM(AC9:AC21)</f>
-        <v>365908</v>
-      </c>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4">
-        <f>SUM(AE9:AE21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4">
-        <f>SUM(AH9:AH21)</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4">
-        <f>SUM(AK9:AK21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
+        <v>188700</v>
+      </c>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <f>SUM(D9:D22)</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <f>SUM(G9:G22)</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <f>SUM(J9:J22)</f>
+        <v>0</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4">
+        <f>SUM(M9:M22)</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="4">
+        <f>SUM(P9:P22)</f>
+        <v>0</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4">
+        <f>SUM(S9:S22)</f>
+        <v>0</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4">
+        <f>SUM(V9:V22)</f>
+        <v>0</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="Y23" s="4">
+        <f>SUM(Y9:Y22)</f>
+        <v>181821</v>
+      </c>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="4"/>
+      <c r="AA23" s="4">
+        <f>SUM(AA9:AA22)</f>
+        <v>878800</v>
+      </c>
       <c r="AB23" s="4">
-        <f>AB6-AB22</f>
-        <v>787108</v>
-      </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
+        <f>SUM(AB9:AB22)</f>
+        <v>512892</v>
+      </c>
+      <c r="AC23" s="4">
+        <f>SUM(AC9:AC22)</f>
+        <v>365908</v>
+      </c>
+      <c r="AD23" s="4">
+        <f>SUM(AD9:AD22)</f>
+        <v>966000</v>
+      </c>
+      <c r="AE23" s="4">
+        <f>SUM(AE9:AE22)</f>
+        <v>144300</v>
+      </c>
+      <c r="AF23" s="4">
+        <f t="shared" si="11"/>
+        <v>821700</v>
+      </c>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
+      <c r="AH23" s="4">
+        <f>SUM(AH9:AH22)</f>
+        <v>0</v>
+      </c>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
+      <c r="AK23" s="4">
+        <f>SUM(AK9:AK22)</f>
+        <v>0</v>
+      </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
     </row>
     <row r="24" spans="1:41">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2527,11 +2590,17 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
+      <c r="AB24" s="4">
+        <f>AB6-AB23</f>
+        <v>787108</v>
+      </c>
       <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
+      <c r="AD24" s="4">
+        <f>AD6-AD23</f>
+        <v>334000</v>
+      </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
@@ -2545,207 +2614,177 @@
       <c r="AO24" s="4"/>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" t="s">
-        <v>42</v>
-      </c>
-      <c r="S25" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" t="s">
-        <v>44</v>
-      </c>
-      <c r="V25" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" t="s">
-        <v>37</v>
-      </c>
-      <c r="X25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>58</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3">
-        <f>AB23*0.3</f>
-        <v>236132.4</v>
-      </c>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3">
-        <f>AA26-AB26</f>
-        <v>236132.4</v>
-      </c>
-      <c r="AD26" s="3">
-        <f>AE23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3">
-        <f>AD26-AE26</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="3">
-        <f>AH23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3">
-        <f>AG26-AH26</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="3">
-        <f>AJ23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3">
-        <f>AJ26-AK26</f>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s">
+        <v>44</v>
+      </c>
+      <c r="V26" t="s">
+        <v>45</v>
+      </c>
+      <c r="W26" t="s">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2772,41 +2811,39 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
-        <f>AB23*0.2</f>
-        <v>157421.6</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>19000</v>
-      </c>
+        <f>AB24*0.3</f>
+        <v>236132.4</v>
+      </c>
+      <c r="AB27" s="3"/>
       <c r="AC27" s="3">
-        <f t="shared" ref="AC27:AC34" si="17">AA27-AB27</f>
-        <v>138421.6</v>
+        <f>AA27-AB27</f>
+        <v>236132.4</v>
       </c>
       <c r="AD27" s="3">
-        <f>AE23*0.2</f>
-        <v>0</v>
+        <f>AD$24*B27</f>
+        <v>83500</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3">
-        <f t="shared" ref="AF27:AF34" si="18">AD27-AE27</f>
-        <v>0</v>
+        <f>AD27-AE27</f>
+        <v>83500</v>
       </c>
       <c r="AG27" s="3">
-        <f>AH23*0.2</f>
+        <f>AH24*0.3</f>
         <v>0</v>
       </c>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3">
-        <f t="shared" ref="AI27:AI34" si="19">AG27-AH27</f>
+        <f>AG27-AH27</f>
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <f>AJ23*0.2</f>
+        <f>AJ24*0.3</f>
         <v>0</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AL34" si="20">AJ27-AK27</f>
+        <f>AJ27-AK27</f>
         <v>0</v>
       </c>
       <c r="AM27" s="3"/>
@@ -2815,10 +2852,10 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2845,41 +2882,41 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
-        <f>AB23*0.1</f>
-        <v>78710.8</v>
+        <f>AB24*0.2</f>
+        <v>157421.6</v>
       </c>
       <c r="AB28" s="3">
-        <v>78000</v>
+        <v>19000</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="17"/>
-        <v>710.80000000000291</v>
+        <f t="shared" ref="AC28:AC35" si="17">AA28-AB28</f>
+        <v>138421.6</v>
       </c>
       <c r="AD28" s="3">
-        <f>AE23*0.1</f>
-        <v>0</v>
+        <f t="shared" ref="AD28:AD35" si="18">AD$24*B28</f>
+        <v>50100</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="AF28:AF35" si="19">AD28-AE28</f>
+        <v>50100</v>
       </c>
       <c r="AG28" s="3">
-        <f>AH23*0.1</f>
+        <f>AH24*0.2</f>
         <v>0</v>
       </c>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AI28:AI35" si="20">AG28-AH28</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
-        <f>AJ23*0.1</f>
+        <f>AJ24*0.2</f>
         <v>0</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AL28:AL35" si="21">AJ28-AK28</f>
         <v>0</v>
       </c>
       <c r="AM28" s="3"/>
@@ -2888,10 +2925,10 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2918,39 +2955,41 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
-        <f>AB23*0.05</f>
-        <v>39355.4</v>
-      </c>
-      <c r="AB29" s="3"/>
+        <f>AB24*0.1</f>
+        <v>78710.8</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>78000</v>
+      </c>
       <c r="AC29" s="3">
         <f t="shared" si="17"/>
-        <v>39355.4</v>
+        <v>710.80000000000291</v>
       </c>
       <c r="AD29" s="3">
-        <f>AE23*0.05</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>33400</v>
       </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>33400</v>
       </c>
       <c r="AG29" s="3">
-        <f>AH23*0.05</f>
+        <f>AH24*0.1</f>
         <v>0</v>
       </c>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
-        <f>AJ23*0.05</f>
+        <f>AJ24*0.1</f>
         <v>0</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM29" s="3"/>
@@ -2959,7 +2998,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>0.05</v>
@@ -2989,41 +3028,39 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
-        <f>AB23*0.05</f>
+        <f>AB24*0.05</f>
         <v>39355.4</v>
       </c>
-      <c r="AB30" s="3">
-        <v>26000</v>
-      </c>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="3">
         <f t="shared" si="17"/>
-        <v>13355.400000000001</v>
+        <v>39355.4</v>
       </c>
       <c r="AD30" s="3">
-        <f>AE$23*0.05</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>16700</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>16700</v>
       </c>
       <c r="AG30" s="3">
-        <f>AH23*0.05</f>
+        <f>AH24*0.05</f>
         <v>0</v>
       </c>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
-        <f>AJ23*0.05</f>
+        <f>AJ24*0.05</f>
         <v>0</v>
       </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM30" s="3"/>
@@ -3032,7 +3069,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1">
         <v>0.05</v>
@@ -3062,22 +3099,24 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
-        <f>AB23*0.05</f>
+        <f>AB24*0.05</f>
         <v>39355.4</v>
       </c>
-      <c r="AB31" s="3"/>
+      <c r="AB31" s="3">
+        <v>26000</v>
+      </c>
       <c r="AC31" s="3">
         <f t="shared" si="17"/>
-        <v>39355.4</v>
+        <v>13355.400000000001</v>
       </c>
       <c r="AD31" s="3">
-        <f>AE$23*0.05</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>16700</v>
       </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>16700</v>
       </c>
       <c r="AG31" s="3">
         <f>AH24*0.05</f>
@@ -3085,7 +3124,7 @@
       </c>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
@@ -3094,7 +3133,7 @@
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM31" s="3"/>
@@ -3103,10 +3142,10 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3133,39 +3172,39 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
-        <f>AB23*0.15</f>
-        <v>118066.2</v>
+        <f>AB24*0.05</f>
+        <v>39355.4</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3">
         <f t="shared" si="17"/>
-        <v>118066.2</v>
+        <v>39355.4</v>
       </c>
       <c r="AD32" s="3">
-        <f>AE23*0.15</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>16700</v>
       </c>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>16700</v>
       </c>
       <c r="AG32" s="3">
-        <f>AH23*0.15</f>
+        <f>AH25*0.05</f>
         <v>0</v>
       </c>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
-        <f>AJ23*0.15</f>
+        <f>AJ25*0.05</f>
         <v>0</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM32" s="3"/>
@@ -3174,10 +3213,10 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3204,41 +3243,39 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
-        <f>AB23*0.15</f>
+        <f>AB24*0.15</f>
         <v>118066.2</v>
       </c>
-      <c r="AB33" s="3">
-        <v>200000</v>
-      </c>
+      <c r="AB33" s="3"/>
       <c r="AC33" s="3">
         <f t="shared" si="17"/>
-        <v>-81933.8</v>
+        <v>118066.2</v>
       </c>
       <c r="AD33" s="3">
-        <f>AE23*0.15</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>33400</v>
       </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>33400</v>
       </c>
       <c r="AG33" s="3">
-        <f>AH23*0.15</f>
+        <f>AH24*0.15</f>
         <v>0</v>
       </c>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
-        <f>AJ23*0.15</f>
+        <f>AJ24*0.15</f>
         <v>0</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM33" s="3"/>
@@ -3247,10 +3284,10 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3277,39 +3314,41 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
-        <f>AB23*0.1</f>
-        <v>78710.8</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <f>AB24*0.15</f>
+        <v>118066.2</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>200000</v>
+      </c>
       <c r="AC34" s="3">
         <f t="shared" si="17"/>
-        <v>78710.8</v>
+        <v>-81933.8</v>
       </c>
       <c r="AD34" s="3">
-        <f>AE23*0.1</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>50100</v>
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>50100</v>
       </c>
       <c r="AG34" s="3">
-        <f>AH23*0.1</f>
+        <f>AH24*0.15</f>
         <v>0</v>
       </c>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
-        <f>AJ23*0.1</f>
+        <f>AJ24*0.15</f>
         <v>0</v>
       </c>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM34" s="3"/>
@@ -3318,81 +3357,156 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3">
+        <f>AB24*0.1</f>
+        <v>78710.8</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3">
+        <f t="shared" si="17"/>
+        <v>78710.8</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="18"/>
+        <v>33400</v>
+      </c>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3">
+        <f t="shared" si="19"/>
+        <v>33400</v>
+      </c>
+      <c r="AG35" s="3">
+        <f>AH24*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f>AJ24*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+    </row>
+    <row r="36" spans="1:41">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="3">
-        <f>SUM(D26:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <f>SUM(G26:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <f>SUM(J26:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <f>SUM(M26:M34)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <f>SUM(P26:P34)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <f>SUM(S26:S34)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <f>SUM(V26:V34)</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <f>SUM(Y26:Y34)</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
-        <f>SUM(AA26:AA34)</f>
+      <c r="B36" s="1">
+        <f>SUM(B27:B35)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D36" s="3">
+        <f>SUM(D27:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f>SUM(G27:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f>SUM(J27:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <f>SUM(M27:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f>SUM(P27:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <f>SUM(S27:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f>SUM(V27:V35)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <f>SUM(Y27:Y35)</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <f>SUM(AA27:AA35)</f>
         <v>905174.2</v>
       </c>
-      <c r="AB35" s="3">
-        <f>SUM(AB26:AB34)</f>
+      <c r="AB36" s="3">
+        <f>SUM(AB27:AB35)</f>
         <v>323000</v>
       </c>
-      <c r="AC35" s="3">
-        <f>SUM(AC26:AC26)</f>
+      <c r="AC36" s="3">
+        <f>SUM(AC27:AC27)</f>
         <v>236132.4</v>
       </c>
-      <c r="AD35" s="3">
-        <f>SUM(AD26:AD34)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="3">
-        <f>SUM(AE26:AE34)</f>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="3">
-        <f>SUM(AG26:AG34)</f>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="3">
-        <f>SUM(AH26:AH34)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="3">
-        <f>SUM(AJ26:AJ34)</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="3">
-        <f>SUM(AK26:AK34)</f>
+      <c r="AD36" s="3">
+        <f>SUM(AD27:AD35)</f>
+        <v>334000</v>
+      </c>
+      <c r="AE36" s="3">
+        <f>SUM(AE27:AE35)</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3">
+        <f>SUM(AG27:AG35)</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3">
+        <f>SUM(AH27:AH35)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f>SUM(AJ27:AJ35)</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <f>SUM(AK27:AK35)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AC35" formula="1"/>
+    <ignoredError sqref="AC36" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3454,11 +3568,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <f>PRESUPUESTO!AA22</f>
+        <f>PRESUPUESTO!AA23</f>
         <v>878800</v>
       </c>
       <c r="D6" s="5">
-        <f>PRESUPUESTO!AB22</f>
+        <f>PRESUPUESTO!AB23</f>
         <v>512892</v>
       </c>
       <c r="E6" s="5">
@@ -3471,11 +3585,11 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <f>PRESUPUESTO!AA35</f>
+        <f>PRESUPUESTO!AA36</f>
         <v>905174.2</v>
       </c>
       <c r="D7" s="5">
-        <f>PRESUPUESTO!AB35</f>
+        <f>PRESUPUESTO!AB36</f>
         <v>323000</v>
       </c>
       <c r="E7" s="5">

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Telefonia</t>
+  </si>
+  <si>
+    <t>Ahorro paseo</t>
   </si>
 </sst>
 </file>
@@ -816,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AO36"/>
+  <dimension ref="A2:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2889,16 +2892,16 @@
         <v>19000</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" ref="AC28:AC35" si="17">AA28-AB28</f>
+        <f t="shared" ref="AC28:AC36" si="17">AA28-AB28</f>
         <v>138421.6</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" ref="AD28:AD35" si="18">AD$24*B28</f>
+        <f t="shared" ref="AD28:AD36" si="18">AD$24*B28</f>
         <v>50100</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AF35" si="19">AD28-AE28</f>
+        <f t="shared" ref="AF28:AF36" si="19">AD28-AE28</f>
         <v>50100</v>
       </c>
       <c r="AG28" s="3">
@@ -2907,7 +2910,7 @@
       </c>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3">
-        <f t="shared" ref="AI28:AI35" si="20">AG28-AH28</f>
+        <f t="shared" ref="AI28:AI36" si="20">AG28-AH28</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
@@ -2916,7 +2919,7 @@
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3">
-        <f t="shared" ref="AL28:AL35" si="21">AJ28-AK28</f>
+        <f t="shared" ref="AL28:AL36" si="21">AJ28-AK28</f>
         <v>0</v>
       </c>
       <c r="AM28" s="3"/>
@@ -3213,10 +3216,10 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3242,52 +3245,34 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3">
-        <f>AB24*0.15</f>
-        <v>118066.2</v>
-      </c>
+      <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="3">
-        <f t="shared" si="17"/>
-        <v>118066.2</v>
-      </c>
+      <c r="AC33" s="3"/>
       <c r="AD33" s="3">
         <f t="shared" si="18"/>
-        <v>33400</v>
+        <v>16700</v>
       </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3">
         <f t="shared" si="19"/>
-        <v>33400</v>
-      </c>
-      <c r="AG33" s="3">
-        <f>AH24*0.15</f>
-        <v>0</v>
-      </c>
+        <v>16700</v>
+      </c>
+      <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="3">
-        <f>AJ24*0.15</f>
-        <v>0</v>
-      </c>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+      <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3317,21 +3302,19 @@
         <f>AB24*0.15</f>
         <v>118066.2</v>
       </c>
-      <c r="AB34" s="3">
-        <v>200000</v>
-      </c>
+      <c r="AB34" s="3"/>
       <c r="AC34" s="3">
         <f t="shared" si="17"/>
-        <v>-81933.8</v>
+        <v>118066.2</v>
       </c>
       <c r="AD34" s="3">
         <f t="shared" si="18"/>
-        <v>50100</v>
+        <v>33400</v>
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3">
         <f t="shared" si="19"/>
-        <v>50100</v>
+        <v>33400</v>
       </c>
       <c r="AG34" s="3">
         <f>AH24*0.15</f>
@@ -3357,7 +3340,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1">
         <v>0.1</v>
@@ -3387,13 +3370,15 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
-        <f>AB24*0.1</f>
-        <v>78710.8</v>
-      </c>
-      <c r="AB35" s="3"/>
+        <f>AB24*0.15</f>
+        <v>118066.2</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>200000</v>
+      </c>
       <c r="AC35" s="3">
         <f t="shared" si="17"/>
-        <v>78710.8</v>
+        <v>-81933.8</v>
       </c>
       <c r="AD35" s="3">
         <f t="shared" si="18"/>
@@ -3405,7 +3390,7 @@
         <v>33400</v>
       </c>
       <c r="AG35" s="3">
-        <f>AH24*0.1</f>
+        <f>AH24*0.15</f>
         <v>0</v>
       </c>
       <c r="AH35" s="3"/>
@@ -3414,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
-        <f>AJ24*0.1</f>
+        <f>AJ24*0.15</f>
         <v>0</v>
       </c>
       <c r="AK35" s="3"/>
@@ -3428,85 +3413,162 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3">
+        <f>AB24*0.1</f>
+        <v>78710.8</v>
+      </c>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3">
+        <f t="shared" si="17"/>
+        <v>78710.8</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" si="18"/>
+        <v>33400</v>
+      </c>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3">
+        <f t="shared" si="19"/>
+        <v>33400</v>
+      </c>
+      <c r="AG36" s="3">
+        <f>AH24*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f>AJ24*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="1">
-        <f>SUM(B27:B35)</f>
+      <c r="B37" s="1">
+        <f>SUM(B27:B36)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D36" s="3">
-        <f>SUM(D27:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <f>SUM(G27:G35)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <f>SUM(J27:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <f>SUM(M27:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <f>SUM(P27:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="3">
-        <f>SUM(S27:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="3">
-        <f>SUM(V27:V35)</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="3">
-        <f>SUM(Y27:Y35)</f>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
-        <f>SUM(AA27:AA35)</f>
+      <c r="D37" s="3">
+        <f>SUM(D27:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f>SUM(G27:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>SUM(J27:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f>SUM(M27:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f>SUM(P27:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <f>SUM(S27:S36)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <f>SUM(V27:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3">
+        <f>SUM(Y27:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <f>SUM(AA27:AA36)</f>
         <v>905174.2</v>
       </c>
-      <c r="AB36" s="3">
-        <f>SUM(AB27:AB35)</f>
+      <c r="AB37" s="3">
+        <f>SUM(AB27:AB36)</f>
         <v>323000</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AC37" s="3">
         <f>SUM(AC27:AC27)</f>
         <v>236132.4</v>
       </c>
-      <c r="AD36" s="3">
-        <f>SUM(AD27:AD35)</f>
+      <c r="AD37" s="3">
+        <f>SUM(AD27:AD36)</f>
         <v>334000</v>
       </c>
-      <c r="AE36" s="3">
-        <f>SUM(AE27:AE35)</f>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="3">
-        <f>SUM(AG27:AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="3">
-        <f>SUM(AH27:AH35)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="3">
-        <f>SUM(AJ27:AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="3">
-        <f>SUM(AK27:AK35)</f>
-        <v>0</v>
+      <c r="AE37" s="3">
+        <f>SUM(AE27:AE36)</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="3">
+        <f>SUM(AG27:AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="3">
+        <f>SUM(AH27:AH36)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <f>SUM(AJ27:AJ36)</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
+        <f>SUM(AK27:AK36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="AD38" s="3">
+        <f>AD23+AD37</f>
+        <v>1300000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AC36" formula="1"/>
+    <ignoredError sqref="AC37" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3585,11 +3647,11 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <f>PRESUPUESTO!AA36</f>
+        <f>PRESUPUESTO!AA37</f>
         <v>905174.2</v>
       </c>
       <c r="D7" s="5">
-        <f>PRESUPUESTO!AB36</f>
+        <f>PRESUPUESTO!AB37</f>
         <v>323000</v>
       </c>
       <c r="E7" s="5">

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -851,8 +851,10 @@
     <col min="30" max="30" width="14.125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="13.125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="11.375" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="37" width="11.375" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="34" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="11" collapsed="1"/>
+    <col min="36" max="37" width="11.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="11" collapsed="1"/>
     <col min="39" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1704,18 +1706,18 @@
         <v>120000</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="10"/>
+        <f>AA12-AB12</f>
         <v>40000</v>
       </c>
       <c r="AD12" s="4">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="AE12" s="4">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="AF12" s="4">
         <f t="shared" si="11"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
@@ -1731,15 +1733,15 @@
       </c>
       <c r="AM12" s="4">
         <f t="shared" si="14"/>
-        <v>320000</v>
+        <v>400000</v>
       </c>
       <c r="AN12" s="4">
         <f t="shared" si="15"/>
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="AO12" s="4">
         <f t="shared" si="16"/>
-        <v>160000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2540,15 +2542,15 @@
       </c>
       <c r="AD23" s="4">
         <f>SUM(AD9:AD22)</f>
-        <v>966000</v>
+        <v>1046000</v>
       </c>
       <c r="AE23" s="4">
         <f>SUM(AE9:AE22)</f>
-        <v>144300</v>
+        <v>164300</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" si="11"/>
-        <v>821700</v>
+        <v>881700</v>
       </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4">
@@ -2602,7 +2604,7 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4">
         <f>AD6-AD23</f>
-        <v>334000</v>
+        <v>254000</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -2824,12 +2826,12 @@
       </c>
       <c r="AD27" s="3">
         <f>AD$24*B27</f>
-        <v>83500</v>
+        <v>63500</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3">
         <f>AD27-AE27</f>
-        <v>83500</v>
+        <v>63500</v>
       </c>
       <c r="AG27" s="3">
         <f>AH24*0.3</f>
@@ -2897,12 +2899,12 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" ref="AD28:AD36" si="18">AD$24*B28</f>
-        <v>50100</v>
+        <v>38100</v>
       </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3">
         <f t="shared" ref="AF28:AF36" si="19">AD28-AE28</f>
-        <v>50100</v>
+        <v>38100</v>
       </c>
       <c r="AG28" s="3">
         <f>AH24*0.2</f>
@@ -2970,12 +2972,12 @@
       </c>
       <c r="AD29" s="3">
         <f t="shared" si="18"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3">
         <f t="shared" si="19"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AG29" s="3">
         <f>AH24*0.1</f>
@@ -3041,12 +3043,12 @@
       </c>
       <c r="AD30" s="3">
         <f t="shared" si="18"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3">
         <f t="shared" si="19"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AG30" s="3">
         <f>AH24*0.05</f>
@@ -3114,12 +3116,12 @@
       </c>
       <c r="AD31" s="3">
         <f t="shared" si="18"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3">
         <f t="shared" si="19"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AG31" s="3">
         <f>AH24*0.05</f>
@@ -3185,12 +3187,12 @@
       </c>
       <c r="AD32" s="3">
         <f t="shared" si="18"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3">
         <f t="shared" si="19"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AG32" s="3">
         <f>AH25*0.05</f>
@@ -3250,12 +3252,12 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3">
         <f t="shared" si="18"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3">
         <f t="shared" si="19"/>
-        <v>16700</v>
+        <v>12700</v>
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
@@ -3309,12 +3311,12 @@
       </c>
       <c r="AD34" s="3">
         <f t="shared" si="18"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3">
         <f t="shared" si="19"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AG34" s="3">
         <f>AH24*0.15</f>
@@ -3382,12 +3384,12 @@
       </c>
       <c r="AD35" s="3">
         <f t="shared" si="18"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3">
         <f t="shared" si="19"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AG35" s="3">
         <f>AH24*0.15</f>
@@ -3453,12 +3455,12 @@
       </c>
       <c r="AD36" s="3">
         <f t="shared" si="18"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3">
         <f t="shared" si="19"/>
-        <v>33400</v>
+        <v>25400</v>
       </c>
       <c r="AG36" s="3">
         <f>AH24*0.1</f>
@@ -3536,7 +3538,7 @@
       </c>
       <c r="AD37" s="3">
         <f>SUM(AD27:AD36)</f>
-        <v>334000</v>
+        <v>254000</v>
       </c>
       <c r="AE37" s="3">
         <f>SUM(AE27:AE36)</f>

--- a/documentos/Presupuesto.xlsx
+++ b/documentos/Presupuesto.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRESUPUESTO" sheetId="1" r:id="rId1"/>
     <sheet name="RESUMEN" sheetId="2" r:id="rId2"/>
     <sheet name="DEUDAS" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t>INGRESOS</t>
   </si>
@@ -373,6 +374,69 @@
   </si>
   <si>
     <t>Ahorro paseo</t>
+  </si>
+  <si>
+    <t>sueldo</t>
+  </si>
+  <si>
+    <t>gastos</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>prestamo uala</t>
+  </si>
+  <si>
+    <t>comunion samuel</t>
+  </si>
+  <si>
+    <t>cumpleaños samuel</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>cita dilza</t>
+  </si>
+  <si>
+    <t>saldo final</t>
+  </si>
+  <si>
+    <t>cadena</t>
+  </si>
+  <si>
+    <t>pasajes</t>
+  </si>
+  <si>
+    <t>inyeccion</t>
+  </si>
+  <si>
+    <t>inversiones</t>
+  </si>
+  <si>
+    <t>gastos reales</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>saldo real</t>
+  </si>
+  <si>
+    <t>onces de sam</t>
+  </si>
+  <si>
+    <t>pago prestamo</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>recibo del gas</t>
+  </si>
+  <si>
+    <t>comida sam</t>
   </si>
 </sst>
 </file>
@@ -420,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -430,6 +494,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -821,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3994,4 +4059,178 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3">
+        <v>650000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <f>(B3-(SUM(D4:D15)))</f>
+        <v>-47500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>27500</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>5600</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <f>(B3-(SUM(F4:F21)))</f>
+        <v>528305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <v>27500</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>100000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6">
+        <v>39865</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7">
+        <v>130000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <v>5230</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>100000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>43500</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>